--- a/Core.NET/Core.NET_UnitTest/Resources/PlayerRecord/XmlIOTest/xml_io_test_1.xlsx
+++ b/Core.NET/Core.NET_UnitTest/Resources/PlayerRecord/XmlIOTest/xml_io_test_1.xlsx
@@ -25,6 +25,12 @@
     <x:t>楽曲名</x:t>
   </x:si>
   <x:si>
+    <x:t>ジャンル</x:t>
+  </x:si>
+  <x:si>
+    <x:t>難易度</x:t>
+  </x:si>
+  <x:si>
     <x:t>スコア</x:t>
   </x:si>
   <x:si>
@@ -34,46 +40,40 @@
     <x:t>単曲レート値</x:t>
   </x:si>
   <x:si>
-    <x:t>難易度</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ジャンル</x:t>
-  </x:si>
-  <x:si>
     <x:t>TEST MUSIC 1</x:t>
   </x:si>
   <x:si>
+    <x:t>POPS &amp; ANIME</x:t>
+  </x:si>
+  <x:si>
     <x:t>BASIC</x:t>
   </x:si>
   <x:si>
-    <x:t>POPS &amp; ANIME</x:t>
-  </x:si>
-  <x:si>
     <x:t>TEST MUSIC 2</x:t>
   </x:si>
   <x:si>
+    <x:t>niconico</x:t>
+  </x:si>
+  <x:si>
     <x:t>ADVANCED</x:t>
   </x:si>
   <x:si>
-    <x:t>niconico</x:t>
-  </x:si>
-  <x:si>
     <x:t>TEST MUSIC 3</x:t>
   </x:si>
   <x:si>
+    <x:t>東方Project</x:t>
+  </x:si>
+  <x:si>
     <x:t>EXPERT</x:t>
   </x:si>
   <x:si>
-    <x:t>東方Project</x:t>
-  </x:si>
-  <x:si>
     <x:t>TEST MUSIC 4</x:t>
   </x:si>
   <x:si>
+    <x:t>VARIETY</x:t>
+  </x:si>
+  <x:si>
     <x:t>MASTER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARIETY</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -460,20 +460,20 @@
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
         <x:v>9750000</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="F2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="G2" s="0" t="n">
         <x:v>1</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -526,20 +526,20 @@
       <x:c r="B2" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
         <x:v>1000000</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="F2" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="G2" s="0" t="n">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -592,20 +592,20 @@
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
         <x:v>1005000</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="F2" s="0" t="n">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="G2" s="0" t="n">
         <x:v>7.5</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -658,20 +658,20 @@
       <x:c r="B2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="n">
         <x:v>1007500</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="F2" s="0" t="n">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="G2" s="0" t="n">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>18</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
